--- a/data/holiday_rugby_all.xlsx
+++ b/data/holiday_rugby_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bahmanrostami-tabar/Dropbox/Research/1.Forecasting for social good/Healthcare/8.hourly-emergency-care-Bhaman-Ivan-Jethro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75FA9B8-3498-D541-8D73-97B3DD75C673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF6C932-C879-3340-8E31-CA5CAA998792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holiday_rugby" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:J1796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
